--- a/data/SURVEY RESULTS_2024.xlsx
+++ b/data/SURVEY RESULTS_2024.xlsx
@@ -424,7 +424,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -461,8 +461,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -471,7 +471,7 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,8 +781,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="31.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="19.433571428571426" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="4" width="11.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -796,7 +796,7 @@
     <col min="13" max="13" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,7 +837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -876,7 +876,7 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -917,7 +917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -956,7 +956,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -995,7 +995,7 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="M21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="M23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="M24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="M25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="M26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="M28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="M29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="M31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="M32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="M33" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="M34" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>

--- a/data/SURVEY RESULTS_2024.xlsx
+++ b/data/SURVEY RESULTS_2024.xlsx
@@ -787,11 +787,11 @@
     <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="61.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="61.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="45.005" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="62.57642857142857" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
@@ -2177,7 +2177,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="M38" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="M40" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="M41" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="M42" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1" t="s">
         <v>97</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="M45" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="M47" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
